--- a/صيدليات دكتور مصطفي طلعت_2026-01-14_18-41.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-14_18-41.xlsx
@@ -92,6 +92,12 @@
     <t>COVI 100 MG 14 SACHETS</t>
   </si>
   <si>
+    <t>DECLOPHEN 100MG 5 SUPP</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
     <t>DOLIPRANE 1 GM 15 TABS.</t>
   </si>
   <si>
@@ -188,6 +194,9 @@
     <t>6:0</t>
   </si>
   <si>
+    <t>MOODAPEX100MG TAB</t>
+  </si>
+  <si>
     <t>MUCOBRAVE 600 MG 10 SACHETS</t>
   </si>
   <si>
@@ -224,6 +233,9 @@
     <t>PEPTIC CARE 14 ENTERIC COATED TAB</t>
   </si>
   <si>
+    <t>PSYCHOLANZ 6/25 MG 30 CAPSULES</t>
+  </si>
+  <si>
     <t>QUADRIDERM CREAM 30 GM</t>
   </si>
   <si>
@@ -252,6 +264,9 @@
   </si>
   <si>
     <t>TRIXOMASH 1 GM VIAL FOR I.M. INJ.</t>
+  </si>
+  <si>
+    <t>TRYPTIZOL 25MG 30 TAB</t>
   </si>
   <si>
     <t>ULTRASOLV SYRUP 120ML</t>
@@ -1181,11 +1196,11 @@
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
       <c r="L15" s="9">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="M15" s="9"/>
       <c t="s" r="N15" s="7">
-        <v>29</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" ht="24.75" customHeight="1">
@@ -1193,7 +1208,7 @@
         <v>13</v>
       </c>
       <c t="s" r="B16" s="7">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -1201,17 +1216,17 @@
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c t="s" r="H16" s="8">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="I16" s="8"/>
       <c r="J16" s="8"/>
       <c r="K16" s="8"/>
       <c r="L16" s="9">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="M16" s="9"/>
       <c t="s" r="N16" s="7">
-        <v>9</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1219,7 +1234,7 @@
         <v>14</v>
       </c>
       <c t="s" r="B17" s="7">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
@@ -1227,13 +1242,13 @@
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c t="s" r="H17" s="8">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
       <c r="K17" s="8"/>
       <c r="L17" s="9">
-        <v>220</v>
+        <v>52</v>
       </c>
       <c r="M17" s="9"/>
       <c t="s" r="N17" s="7">
@@ -1245,7 +1260,7 @@
         <v>15</v>
       </c>
       <c t="s" r="B18" s="7">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -1253,17 +1268,17 @@
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
       <c t="s" r="H18" s="8">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="I18" s="8"/>
       <c r="J18" s="8"/>
       <c r="K18" s="8"/>
       <c r="L18" s="9">
-        <v>80</v>
+        <v>220</v>
       </c>
       <c r="M18" s="9"/>
       <c t="s" r="N18" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" ht="24.75" customHeight="1">
@@ -1271,7 +1286,7 @@
         <v>16</v>
       </c>
       <c t="s" r="B19" s="7">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
@@ -1279,17 +1294,17 @@
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c t="s" r="H19" s="8">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I19" s="8"/>
       <c r="J19" s="8"/>
       <c r="K19" s="8"/>
       <c r="L19" s="9">
-        <v>52</v>
+        <v>80</v>
       </c>
       <c r="M19" s="9"/>
       <c t="s" r="N19" s="7">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" ht="25.5" customHeight="1">
@@ -1297,7 +1312,7 @@
         <v>17</v>
       </c>
       <c t="s" r="B20" s="7">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
@@ -1305,17 +1320,17 @@
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c t="s" r="H20" s="8">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="I20" s="8"/>
       <c r="J20" s="8"/>
       <c r="K20" s="8"/>
       <c r="L20" s="9">
-        <v>150</v>
+        <v>52</v>
       </c>
       <c r="M20" s="9"/>
       <c t="s" r="N20" s="7">
-        <v>9</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" ht="24.75" customHeight="1">
@@ -1323,7 +1338,7 @@
         <v>18</v>
       </c>
       <c t="s" r="B21" s="7">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
@@ -1331,13 +1346,13 @@
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
       <c t="s" r="H21" s="8">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="I21" s="8"/>
       <c r="J21" s="8"/>
       <c r="K21" s="8"/>
       <c r="L21" s="9">
-        <v>26</v>
+        <v>150</v>
       </c>
       <c r="M21" s="9"/>
       <c t="s" r="N21" s="7">
@@ -1357,17 +1372,17 @@
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
       <c t="s" r="H22" s="8">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="I22" s="8"/>
       <c r="J22" s="8"/>
       <c r="K22" s="8"/>
       <c r="L22" s="9">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="M22" s="9"/>
       <c t="s" r="N22" s="7">
-        <v>24</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" ht="25.5" customHeight="1">
@@ -1375,7 +1390,7 @@
         <v>20</v>
       </c>
       <c t="s" r="B23" s="7">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
@@ -1383,17 +1398,17 @@
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
       <c t="s" r="H23" s="8">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="I23" s="8"/>
       <c r="J23" s="8"/>
       <c r="K23" s="8"/>
       <c r="L23" s="9">
-        <v>30.079999999999998</v>
+        <v>55</v>
       </c>
       <c r="M23" s="9"/>
       <c t="s" r="N23" s="7">
-        <v>9</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24" ht="24.75" customHeight="1">
@@ -1401,7 +1416,7 @@
         <v>21</v>
       </c>
       <c t="s" r="B24" s="7">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
@@ -1409,13 +1424,13 @@
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
       <c t="s" r="H24" s="8">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="I24" s="8"/>
       <c r="J24" s="8"/>
       <c r="K24" s="8"/>
       <c r="L24" s="9">
-        <v>66</v>
+        <v>30.079999999999998</v>
       </c>
       <c r="M24" s="9"/>
       <c t="s" r="N24" s="7">
@@ -1427,7 +1442,7 @@
         <v>22</v>
       </c>
       <c t="s" r="B25" s="7">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
@@ -1435,17 +1450,17 @@
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
       <c t="s" r="H25" s="8">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="I25" s="8"/>
       <c r="J25" s="8"/>
       <c r="K25" s="8"/>
       <c r="L25" s="9">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="M25" s="9"/>
       <c t="s" r="N25" s="7">
-        <v>24</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26" ht="24.75" customHeight="1">
@@ -1461,17 +1476,17 @@
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
       <c t="s" r="H26" s="8">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="I26" s="8"/>
       <c r="J26" s="8"/>
       <c r="K26" s="8"/>
       <c r="L26" s="9">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="M26" s="9"/>
       <c t="s" r="N26" s="7">
-        <v>9</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1479,7 +1494,7 @@
         <v>24</v>
       </c>
       <c t="s" r="B27" s="7">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
@@ -1487,17 +1502,17 @@
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
       <c t="s" r="H27" s="8">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="I27" s="8"/>
       <c r="J27" s="8"/>
       <c r="K27" s="8"/>
       <c r="L27" s="9">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="M27" s="9"/>
       <c t="s" r="N27" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28" ht="25.5" customHeight="1">
@@ -1505,7 +1520,7 @@
         <v>25</v>
       </c>
       <c t="s" r="B28" s="7">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
@@ -1513,17 +1528,17 @@
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
       <c t="s" r="H28" s="8">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="I28" s="8"/>
       <c r="J28" s="8"/>
       <c r="K28" s="8"/>
       <c r="L28" s="9">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="M28" s="9"/>
       <c t="s" r="N28" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" ht="24.75" customHeight="1">
@@ -1531,7 +1546,7 @@
         <v>26</v>
       </c>
       <c t="s" r="B29" s="7">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
@@ -1539,17 +1554,17 @@
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
       <c t="s" r="H29" s="8">
-        <v>46</v>
+        <v>9</v>
       </c>
       <c r="I29" s="8"/>
       <c r="J29" s="8"/>
       <c r="K29" s="8"/>
       <c r="L29" s="9">
-        <v>15</v>
+        <v>56</v>
       </c>
       <c r="M29" s="9"/>
       <c t="s" r="N29" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="30" ht="25.5" customHeight="1">
@@ -1565,17 +1580,17 @@
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
       <c t="s" r="H30" s="8">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="I30" s="8"/>
       <c r="J30" s="8"/>
       <c r="K30" s="8"/>
       <c r="L30" s="9">
-        <v>57</v>
+        <v>15</v>
       </c>
       <c r="M30" s="9"/>
       <c t="s" r="N30" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" ht="24.75" customHeight="1">
@@ -1583,7 +1598,7 @@
         <v>28</v>
       </c>
       <c t="s" r="B31" s="7">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
@@ -1591,17 +1606,17 @@
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
       <c t="s" r="H31" s="8">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="I31" s="8"/>
       <c r="J31" s="8"/>
       <c r="K31" s="8"/>
       <c r="L31" s="9">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="M31" s="9"/>
       <c t="s" r="N31" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1609,7 +1624,7 @@
         <v>29</v>
       </c>
       <c t="s" r="B32" s="7">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
@@ -1617,17 +1632,17 @@
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
       <c t="s" r="H32" s="8">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="I32" s="8"/>
       <c r="J32" s="8"/>
       <c r="K32" s="8"/>
       <c r="L32" s="9">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="M32" s="9"/>
       <c t="s" r="N32" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" ht="25.5" customHeight="1">
@@ -1635,7 +1650,7 @@
         <v>30</v>
       </c>
       <c t="s" r="B33" s="7">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
@@ -1643,17 +1658,17 @@
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
       <c t="s" r="H33" s="8">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="I33" s="8"/>
       <c r="J33" s="8"/>
       <c r="K33" s="8"/>
       <c r="L33" s="9">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="M33" s="9"/>
       <c t="s" r="N33" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="34" ht="24.75" customHeight="1">
@@ -1669,17 +1684,17 @@
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
       <c t="s" r="H34" s="8">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="I34" s="8"/>
       <c r="J34" s="8"/>
       <c r="K34" s="8"/>
       <c r="L34" s="9">
-        <v>109</v>
+        <v>30</v>
       </c>
       <c r="M34" s="9"/>
       <c t="s" r="N34" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="35" ht="25.5" customHeight="1">
@@ -1687,7 +1702,7 @@
         <v>32</v>
       </c>
       <c t="s" r="B35" s="7">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C35" s="7"/>
       <c r="D35" s="7"/>
@@ -1695,17 +1710,17 @@
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
       <c t="s" r="H35" s="8">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="I35" s="8"/>
       <c r="J35" s="8"/>
       <c r="K35" s="8"/>
       <c r="L35" s="9">
-        <v>18</v>
+        <v>109</v>
       </c>
       <c r="M35" s="9"/>
       <c t="s" r="N35" s="7">
-        <v>24</v>
+        <v>9</v>
       </c>
     </row>
     <row r="36" ht="24.75" customHeight="1">
@@ -1713,7 +1728,7 @@
         <v>33</v>
       </c>
       <c t="s" r="B36" s="7">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
@@ -1721,17 +1736,17 @@
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
       <c t="s" r="H36" s="8">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="I36" s="8"/>
       <c r="J36" s="8"/>
       <c r="K36" s="8"/>
       <c r="L36" s="9">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="M36" s="9"/>
       <c t="s" r="N36" s="7">
-        <v>9</v>
+        <v>24</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -1739,7 +1754,7 @@
         <v>34</v>
       </c>
       <c t="s" r="B37" s="7">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C37" s="7"/>
       <c r="D37" s="7"/>
@@ -1747,17 +1762,17 @@
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
       <c t="s" r="H37" s="8">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="I37" s="8"/>
       <c r="J37" s="8"/>
       <c r="K37" s="8"/>
       <c r="L37" s="9">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="M37" s="9"/>
       <c t="s" r="N37" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="38" ht="25.5" customHeight="1">
@@ -1779,11 +1794,11 @@
       <c r="J38" s="8"/>
       <c r="K38" s="8"/>
       <c r="L38" s="9">
-        <v>260</v>
+        <v>28</v>
       </c>
       <c r="M38" s="9"/>
       <c t="s" r="N38" s="7">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" ht="24.75" customHeight="1">
@@ -1799,17 +1814,17 @@
       <c r="F39" s="7"/>
       <c r="G39" s="7"/>
       <c t="s" r="H39" s="8">
-        <v>9</v>
+        <v>60</v>
       </c>
       <c r="I39" s="8"/>
       <c r="J39" s="8"/>
       <c r="K39" s="8"/>
       <c r="L39" s="9">
-        <v>75</v>
+        <v>260</v>
       </c>
       <c r="M39" s="9"/>
       <c t="s" r="N39" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="40" ht="25.5" customHeight="1">
@@ -1817,7 +1832,7 @@
         <v>37</v>
       </c>
       <c t="s" r="B40" s="7">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C40" s="7"/>
       <c r="D40" s="7"/>
@@ -1825,17 +1840,17 @@
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
       <c t="s" r="H40" s="8">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I40" s="8"/>
       <c r="J40" s="8"/>
       <c r="K40" s="8"/>
       <c r="L40" s="9">
-        <v>21.559999999999999</v>
+        <v>41</v>
       </c>
       <c r="M40" s="9"/>
       <c t="s" r="N40" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" ht="24.75" customHeight="1">
@@ -1843,7 +1858,7 @@
         <v>38</v>
       </c>
       <c t="s" r="B41" s="7">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C41" s="7"/>
       <c r="D41" s="7"/>
@@ -1857,7 +1872,7 @@
       <c r="J41" s="8"/>
       <c r="K41" s="8"/>
       <c r="L41" s="9">
-        <v>28</v>
+        <v>75</v>
       </c>
       <c r="M41" s="9"/>
       <c t="s" r="N41" s="7">
@@ -1869,7 +1884,7 @@
         <v>39</v>
       </c>
       <c t="s" r="B42" s="7">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
@@ -1877,17 +1892,17 @@
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
       <c t="s" r="H42" s="8">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="I42" s="8"/>
       <c r="J42" s="8"/>
       <c r="K42" s="8"/>
       <c r="L42" s="9">
-        <v>53</v>
+        <v>21.559999999999999</v>
       </c>
       <c r="M42" s="9"/>
       <c t="s" r="N42" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="43" ht="25.5" customHeight="1">
@@ -1895,7 +1910,7 @@
         <v>40</v>
       </c>
       <c t="s" r="B43" s="7">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C43" s="7"/>
       <c r="D43" s="7"/>
@@ -1903,17 +1918,17 @@
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
       <c t="s" r="H43" s="8">
-        <v>64</v>
+        <v>9</v>
       </c>
       <c r="I43" s="8"/>
       <c r="J43" s="8"/>
       <c r="K43" s="8"/>
       <c r="L43" s="9">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="M43" s="9"/>
       <c t="s" r="N43" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="44" ht="24.75" customHeight="1">
@@ -1929,17 +1944,17 @@
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
       <c t="s" r="H44" s="8">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="I44" s="8"/>
       <c r="J44" s="8"/>
       <c r="K44" s="8"/>
       <c r="L44" s="9">
-        <v>80</v>
+        <v>53</v>
       </c>
       <c r="M44" s="9"/>
       <c t="s" r="N44" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" ht="25.5" customHeight="1">
@@ -1955,17 +1970,17 @@
       <c r="F45" s="7"/>
       <c r="G45" s="7"/>
       <c t="s" r="H45" s="8">
-        <v>8</v>
+        <v>67</v>
       </c>
       <c r="I45" s="8"/>
       <c r="J45" s="8"/>
       <c r="K45" s="8"/>
       <c r="L45" s="9">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="M45" s="9"/>
       <c t="s" r="N45" s="7">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46" ht="24.75" customHeight="1">
@@ -1973,7 +1988,7 @@
         <v>43</v>
       </c>
       <c t="s" r="B46" s="7">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C46" s="7"/>
       <c r="D46" s="7"/>
@@ -1981,17 +1996,17 @@
       <c r="F46" s="7"/>
       <c r="G46" s="7"/>
       <c t="s" r="H46" s="8">
-        <v>68</v>
+        <v>12</v>
       </c>
       <c r="I46" s="8"/>
       <c r="J46" s="8"/>
       <c r="K46" s="8"/>
       <c r="L46" s="9">
-        <v>46</v>
+        <v>80</v>
       </c>
       <c r="M46" s="9"/>
       <c t="s" r="N46" s="7">
-        <v>46</v>
+        <v>9</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2007,17 +2022,17 @@
       <c r="F47" s="7"/>
       <c r="G47" s="7"/>
       <c t="s" r="H47" s="8">
-        <v>56</v>
+        <v>8</v>
       </c>
       <c r="I47" s="8"/>
       <c r="J47" s="8"/>
       <c r="K47" s="8"/>
       <c r="L47" s="9">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="M47" s="9"/>
       <c t="s" r="N47" s="7">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="48" ht="25.5" customHeight="1">
@@ -2033,17 +2048,17 @@
       <c r="F48" s="7"/>
       <c r="G48" s="7"/>
       <c t="s" r="H48" s="8">
-        <v>9</v>
+        <v>71</v>
       </c>
       <c r="I48" s="8"/>
       <c r="J48" s="8"/>
       <c r="K48" s="8"/>
       <c r="L48" s="9">
-        <v>230</v>
+        <v>46</v>
       </c>
       <c r="M48" s="9"/>
       <c t="s" r="N48" s="7">
-        <v>9</v>
+        <v>48</v>
       </c>
     </row>
     <row r="49" ht="24.75" customHeight="1">
@@ -2051,7 +2066,7 @@
         <v>46</v>
       </c>
       <c t="s" r="B49" s="7">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C49" s="7"/>
       <c r="D49" s="7"/>
@@ -2059,17 +2074,17 @@
       <c r="F49" s="7"/>
       <c r="G49" s="7"/>
       <c t="s" r="H49" s="8">
-        <v>12</v>
+        <v>58</v>
       </c>
       <c r="I49" s="8"/>
       <c r="J49" s="8"/>
       <c r="K49" s="8"/>
       <c r="L49" s="9">
-        <v>144</v>
+        <v>23</v>
       </c>
       <c r="M49" s="9"/>
       <c t="s" r="N49" s="7">
-        <v>51</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" ht="25.5" customHeight="1">
@@ -2077,7 +2092,7 @@
         <v>47</v>
       </c>
       <c t="s" r="B50" s="7">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C50" s="7"/>
       <c r="D50" s="7"/>
@@ -2085,17 +2100,17 @@
       <c r="F50" s="7"/>
       <c r="G50" s="7"/>
       <c t="s" r="H50" s="8">
-        <v>73</v>
+        <v>9</v>
       </c>
       <c r="I50" s="8"/>
       <c r="J50" s="8"/>
       <c r="K50" s="8"/>
       <c r="L50" s="9">
-        <v>84</v>
+        <v>230</v>
       </c>
       <c r="M50" s="9"/>
       <c t="s" r="N50" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="51" ht="24.75" customHeight="1">
@@ -2111,17 +2126,17 @@
       <c r="F51" s="7"/>
       <c r="G51" s="7"/>
       <c t="s" r="H51" s="8">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="I51" s="8"/>
       <c r="J51" s="8"/>
       <c r="K51" s="8"/>
       <c r="L51" s="9">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="M51" s="9"/>
       <c t="s" r="N51" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2137,17 +2152,17 @@
       <c r="F52" s="7"/>
       <c r="G52" s="7"/>
       <c t="s" r="H52" s="8">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I52" s="8"/>
       <c r="J52" s="8"/>
       <c r="K52" s="8"/>
       <c r="L52" s="9">
-        <v>25</v>
+        <v>144</v>
       </c>
       <c r="M52" s="9"/>
       <c t="s" r="N52" s="7">
-        <v>12</v>
+        <v>53</v>
       </c>
     </row>
     <row r="53" ht="25.5" customHeight="1">
@@ -2163,17 +2178,17 @@
       <c r="F53" s="7"/>
       <c r="G53" s="7"/>
       <c t="s" r="H53" s="8">
-        <v>8</v>
+        <v>77</v>
       </c>
       <c r="I53" s="8"/>
       <c r="J53" s="8"/>
       <c r="K53" s="8"/>
       <c r="L53" s="9">
-        <v>29</v>
+        <v>84</v>
       </c>
       <c r="M53" s="9"/>
       <c t="s" r="N53" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="54" ht="24.75" customHeight="1">
@@ -2181,7 +2196,7 @@
         <v>51</v>
       </c>
       <c t="s" r="B54" s="7">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C54" s="7"/>
       <c r="D54" s="7"/>
@@ -2195,7 +2210,7 @@
       <c r="J54" s="8"/>
       <c r="K54" s="8"/>
       <c r="L54" s="9">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="M54" s="9"/>
       <c t="s" r="N54" s="7">
@@ -2207,7 +2222,7 @@
         <v>52</v>
       </c>
       <c t="s" r="B55" s="7">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C55" s="7"/>
       <c r="D55" s="7"/>
@@ -2221,7 +2236,7 @@
       <c r="J55" s="8"/>
       <c r="K55" s="8"/>
       <c r="L55" s="9">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="M55" s="9"/>
       <c t="s" r="N55" s="7">
@@ -2233,7 +2248,7 @@
         <v>53</v>
       </c>
       <c t="s" r="B56" s="7">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C56" s="7"/>
       <c r="D56" s="7"/>
@@ -2241,13 +2256,13 @@
       <c r="F56" s="7"/>
       <c r="G56" s="7"/>
       <c t="s" r="H56" s="8">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="I56" s="8"/>
       <c r="J56" s="8"/>
       <c r="K56" s="8"/>
       <c r="L56" s="9">
-        <v>531</v>
+        <v>29</v>
       </c>
       <c r="M56" s="9"/>
       <c t="s" r="N56" s="7">
@@ -2259,7 +2274,7 @@
         <v>54</v>
       </c>
       <c t="s" r="B57" s="7">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C57" s="7"/>
       <c r="D57" s="7"/>
@@ -2267,17 +2282,17 @@
       <c r="F57" s="7"/>
       <c r="G57" s="7"/>
       <c t="s" r="H57" s="8">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I57" s="8"/>
       <c r="J57" s="8"/>
       <c r="K57" s="8"/>
       <c r="L57" s="9">
-        <v>-96</v>
+        <v>23</v>
       </c>
       <c r="M57" s="9"/>
       <c t="s" r="N57" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="58" ht="25.5" customHeight="1">
@@ -2285,7 +2300,7 @@
         <v>55</v>
       </c>
       <c t="s" r="B58" s="7">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C58" s="7"/>
       <c r="D58" s="7"/>
@@ -2293,17 +2308,17 @@
       <c r="F58" s="7"/>
       <c r="G58" s="7"/>
       <c t="s" r="H58" s="8">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="I58" s="8"/>
       <c r="J58" s="8"/>
       <c r="K58" s="8"/>
       <c r="L58" s="9">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="M58" s="9"/>
       <c t="s" r="N58" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="59" ht="24.75" customHeight="1">
@@ -2311,7 +2326,7 @@
         <v>56</v>
       </c>
       <c t="s" r="B59" s="7">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C59" s="7"/>
       <c r="D59" s="7"/>
@@ -2319,13 +2334,13 @@
       <c r="F59" s="7"/>
       <c r="G59" s="7"/>
       <c t="s" r="H59" s="8">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="I59" s="8"/>
       <c r="J59" s="8"/>
       <c r="K59" s="8"/>
       <c r="L59" s="9">
-        <v>53</v>
+        <v>531</v>
       </c>
       <c r="M59" s="9"/>
       <c t="s" r="N59" s="7">
@@ -2337,7 +2352,7 @@
         <v>57</v>
       </c>
       <c t="s" r="B60" s="7">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C60" s="7"/>
       <c r="D60" s="7"/>
@@ -2345,17 +2360,17 @@
       <c r="F60" s="7"/>
       <c r="G60" s="7"/>
       <c t="s" r="H60" s="8">
-        <v>84</v>
+        <v>15</v>
       </c>
       <c r="I60" s="8"/>
       <c r="J60" s="8"/>
       <c r="K60" s="8"/>
       <c r="L60" s="9">
-        <v>14.67</v>
+        <v>-96</v>
       </c>
       <c r="M60" s="9"/>
       <c t="s" r="N60" s="7">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="61" ht="24.75" customHeight="1">
@@ -2371,17 +2386,17 @@
       <c r="F61" s="7"/>
       <c r="G61" s="7"/>
       <c t="s" r="H61" s="8">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="I61" s="8"/>
       <c r="J61" s="8"/>
       <c r="K61" s="8"/>
       <c r="L61" s="9">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="M61" s="9"/>
       <c t="s" r="N61" s="7">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -2397,13 +2412,13 @@
       <c r="F62" s="7"/>
       <c r="G62" s="7"/>
       <c t="s" r="H62" s="8">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I62" s="8"/>
       <c r="J62" s="8"/>
       <c r="K62" s="8"/>
       <c r="L62" s="9">
-        <v>86</v>
+        <v>25</v>
       </c>
       <c r="M62" s="9"/>
       <c t="s" r="N62" s="7">
@@ -2423,17 +2438,17 @@
       <c r="F63" s="7"/>
       <c r="G63" s="7"/>
       <c t="s" r="H63" s="8">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="I63" s="8"/>
       <c r="J63" s="8"/>
       <c r="K63" s="8"/>
       <c r="L63" s="9">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="M63" s="9"/>
       <c t="s" r="N63" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="64" ht="24.75" customHeight="1">
@@ -2449,17 +2464,17 @@
       <c r="F64" s="7"/>
       <c r="G64" s="7"/>
       <c t="s" r="H64" s="8">
-        <v>58</v>
+        <v>89</v>
       </c>
       <c r="I64" s="8"/>
       <c r="J64" s="8"/>
       <c r="K64" s="8"/>
       <c r="L64" s="9">
-        <v>96</v>
+        <v>14.67</v>
       </c>
       <c r="M64" s="9"/>
       <c t="s" r="N64" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="65" ht="25.5" customHeight="1">
@@ -2467,7 +2482,7 @@
         <v>62</v>
       </c>
       <c t="s" r="B65" s="7">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C65" s="7"/>
       <c r="D65" s="7"/>
@@ -2475,17 +2490,17 @@
       <c r="F65" s="7"/>
       <c r="G65" s="7"/>
       <c t="s" r="H65" s="8">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="I65" s="8"/>
       <c r="J65" s="8"/>
       <c r="K65" s="8"/>
       <c r="L65" s="9">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="M65" s="9"/>
       <c t="s" r="N65" s="7">
-        <v>24</v>
+        <v>31</v>
       </c>
     </row>
     <row r="66" ht="24.75" customHeight="1">
@@ -2493,7 +2508,7 @@
         <v>63</v>
       </c>
       <c t="s" r="B66" s="7">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C66" s="7"/>
       <c r="D66" s="7"/>
@@ -2501,13 +2516,13 @@
       <c r="F66" s="7"/>
       <c r="G66" s="7"/>
       <c t="s" r="H66" s="8">
-        <v>91</v>
+        <v>9</v>
       </c>
       <c r="I66" s="8"/>
       <c r="J66" s="8"/>
       <c r="K66" s="8"/>
       <c r="L66" s="9">
-        <v>2</v>
+        <v>86</v>
       </c>
       <c r="M66" s="9"/>
       <c t="s" r="N66" s="7">
@@ -2527,17 +2542,17 @@
       <c r="F67" s="7"/>
       <c r="G67" s="7"/>
       <c t="s" r="H67" s="8">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="I67" s="8"/>
       <c r="J67" s="8"/>
       <c r="K67" s="8"/>
       <c r="L67" s="9">
-        <v>-4</v>
+        <v>42</v>
       </c>
       <c r="M67" s="9"/>
       <c t="s" r="N67" s="7">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="68" ht="25.5" customHeight="1">
@@ -2553,13 +2568,13 @@
       <c r="F68" s="7"/>
       <c r="G68" s="7"/>
       <c t="s" r="H68" s="8">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="I68" s="8"/>
       <c r="J68" s="8"/>
       <c r="K68" s="8"/>
       <c r="L68" s="9">
-        <v>40</v>
+        <v>96</v>
       </c>
       <c r="M68" s="9"/>
       <c t="s" r="N68" s="7">
@@ -2579,17 +2594,17 @@
       <c r="F69" s="7"/>
       <c r="G69" s="7"/>
       <c t="s" r="H69" s="8">
-        <v>58</v>
+        <v>9</v>
       </c>
       <c r="I69" s="8"/>
       <c r="J69" s="8"/>
       <c r="K69" s="8"/>
       <c r="L69" s="9">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="M69" s="9"/>
       <c t="s" r="N69" s="7">
-        <v>9</v>
+        <v>24</v>
       </c>
     </row>
     <row r="70" ht="25.5" customHeight="1">
@@ -2605,51 +2620,155 @@
       <c r="F70" s="7"/>
       <c r="G70" s="7"/>
       <c t="s" r="H70" s="8">
-        <v>9</v>
+        <v>96</v>
       </c>
       <c r="I70" s="8"/>
       <c r="J70" s="8"/>
       <c r="K70" s="8"/>
       <c r="L70" s="9">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="M70" s="9"/>
       <c t="s" r="N70" s="7">
         <v>9</v>
       </c>
     </row>
-    <row r="71" ht="25.5" customHeight="1">
-      <c r="K71" s="10">
-        <v>4008.21</v>
-      </c>
-      <c r="L71" s="10"/>
-      <c r="M71" s="10"/>
-      <c r="N71" s="10"/>
-    </row>
-    <row r="72" ht="16.5" customHeight="1">
-      <c t="s" r="A72" s="11">
-        <v>96</v>
-      </c>
-      <c r="B72" s="11"/>
-      <c r="C72" s="11"/>
-      <c r="D72" s="11"/>
-      <c r="E72" s="11"/>
-      <c t="s" r="F72" s="12">
+    <row r="71" ht="24.75" customHeight="1">
+      <c r="A71" s="6">
+        <v>68</v>
+      </c>
+      <c t="s" r="B71" s="7">
         <v>97</v>
       </c>
-      <c r="G72" s="12"/>
-      <c r="H72" s="13"/>
-      <c t="s" r="I72" s="14">
+      <c r="C71" s="7"/>
+      <c r="D71" s="7"/>
+      <c r="E71" s="7"/>
+      <c r="F71" s="7"/>
+      <c r="G71" s="7"/>
+      <c t="s" r="H71" s="8">
+        <v>9</v>
+      </c>
+      <c r="I71" s="8"/>
+      <c r="J71" s="8"/>
+      <c r="K71" s="8"/>
+      <c r="L71" s="9">
+        <v>-4</v>
+      </c>
+      <c r="M71" s="9"/>
+      <c t="s" r="N71" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="72" ht="25.5" customHeight="1">
+      <c r="A72" s="6">
+        <v>69</v>
+      </c>
+      <c t="s" r="B72" s="7">
         <v>98</v>
       </c>
-      <c r="J72" s="14"/>
-      <c r="K72" s="14"/>
-      <c r="L72" s="14"/>
-      <c r="M72" s="14"/>
-      <c r="N72" s="14"/>
+      <c r="C72" s="7"/>
+      <c r="D72" s="7"/>
+      <c r="E72" s="7"/>
+      <c r="F72" s="7"/>
+      <c r="G72" s="7"/>
+      <c t="s" r="H72" s="8">
+        <v>12</v>
+      </c>
+      <c r="I72" s="8"/>
+      <c r="J72" s="8"/>
+      <c r="K72" s="8"/>
+      <c r="L72" s="9">
+        <v>40</v>
+      </c>
+      <c r="M72" s="9"/>
+      <c t="s" r="N72" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="73" ht="25.5" customHeight="1">
+      <c r="A73" s="6">
+        <v>70</v>
+      </c>
+      <c t="s" r="B73" s="7">
+        <v>99</v>
+      </c>
+      <c r="C73" s="7"/>
+      <c r="D73" s="7"/>
+      <c r="E73" s="7"/>
+      <c r="F73" s="7"/>
+      <c r="G73" s="7"/>
+      <c t="s" r="H73" s="8">
+        <v>60</v>
+      </c>
+      <c r="I73" s="8"/>
+      <c r="J73" s="8"/>
+      <c r="K73" s="8"/>
+      <c r="L73" s="9">
+        <v>80</v>
+      </c>
+      <c r="M73" s="9"/>
+      <c t="s" r="N73" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="74" ht="24.75" customHeight="1">
+      <c r="A74" s="6">
+        <v>71</v>
+      </c>
+      <c t="s" r="B74" s="7">
+        <v>100</v>
+      </c>
+      <c r="C74" s="7"/>
+      <c r="D74" s="7"/>
+      <c r="E74" s="7"/>
+      <c r="F74" s="7"/>
+      <c r="G74" s="7"/>
+      <c t="s" r="H74" s="8">
+        <v>9</v>
+      </c>
+      <c r="I74" s="8"/>
+      <c r="J74" s="8"/>
+      <c r="K74" s="8"/>
+      <c r="L74" s="9">
+        <v>20</v>
+      </c>
+      <c r="M74" s="9"/>
+      <c t="s" r="N74" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="75" ht="26.25" customHeight="1">
+      <c r="K75" s="10">
+        <v>4160.21</v>
+      </c>
+      <c r="L75" s="10"/>
+      <c r="M75" s="10"/>
+      <c r="N75" s="10"/>
+    </row>
+    <row r="76" ht="16.5" customHeight="1">
+      <c t="s" r="A76" s="11">
+        <v>101</v>
+      </c>
+      <c r="B76" s="11"/>
+      <c r="C76" s="11"/>
+      <c r="D76" s="11"/>
+      <c r="E76" s="11"/>
+      <c t="s" r="F76" s="12">
+        <v>102</v>
+      </c>
+      <c r="G76" s="12"/>
+      <c r="H76" s="13"/>
+      <c t="s" r="I76" s="14">
+        <v>103</v>
+      </c>
+      <c r="J76" s="14"/>
+      <c r="K76" s="14"/>
+      <c r="L76" s="14"/>
+      <c r="M76" s="14"/>
+      <c r="N76" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="212">
+  <mergeCells count="224">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -2858,10 +2977,22 @@
     <mergeCell ref="B70:G70"/>
     <mergeCell ref="H70:K70"/>
     <mergeCell ref="L70:M70"/>
-    <mergeCell ref="K71:N71"/>
-    <mergeCell ref="A72:E72"/>
-    <mergeCell ref="F72:G72"/>
-    <mergeCell ref="I72:N72"/>
+    <mergeCell ref="B71:G71"/>
+    <mergeCell ref="H71:K71"/>
+    <mergeCell ref="L71:M71"/>
+    <mergeCell ref="B72:G72"/>
+    <mergeCell ref="H72:K72"/>
+    <mergeCell ref="L72:M72"/>
+    <mergeCell ref="B73:G73"/>
+    <mergeCell ref="H73:K73"/>
+    <mergeCell ref="L73:M73"/>
+    <mergeCell ref="B74:G74"/>
+    <mergeCell ref="H74:K74"/>
+    <mergeCell ref="L74:M74"/>
+    <mergeCell ref="K75:N75"/>
+    <mergeCell ref="A76:E76"/>
+    <mergeCell ref="F76:G76"/>
+    <mergeCell ref="I76:N76"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
